--- a/ProjectDocuments/企画概要&プロト要件.xlsx
+++ b/ProjectDocuments/企画概要&プロト要件.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="企画概要" sheetId="1" r:id="rId1"/>
     <sheet name="プロト１_要件" sheetId="2" r:id="rId2"/>
+    <sheet name="プロト１_画面構成" sheetId="4" r:id="rId3"/>
+    <sheet name="プロト１_各問題（タスク）について" sheetId="3" r:id="rId4"/>
+    <sheet name="更新履歴　等" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>■どういうのを作りたい？</t>
     <rPh sb="7" eb="8">
@@ -216,25 +219,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　・メイドインワリオと鬼トレを組み合わせて、いわゆるゾーンの気持ちよさを味わえるか</t>
-    <rPh sb="11" eb="12">
-      <t>オニ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>キモ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>アジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■確認の為、必要な実装は？</t>
     <rPh sb="1" eb="3">
       <t>カクニン</t>
@@ -393,12 +377,191 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>・（最初の要件として）そもそも、メイドインワリオのような鬼トレ　そのものが面白いのか</t>
+    <rPh sb="2" eb="4">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オニ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>オモシロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大まかに下記が必要。</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．ゲームの流れ</t>
+    <rPh sb="6" eb="7">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ゲームの流れ―詳細</t>
+    <rPh sb="5" eb="6">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※　→　必ず実装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？　→　余裕があれば（多分実装しない）</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．各問題（以降"タスク"と呼称）の実装（詳細は別シート参照の事）</t>
+    <rPh sb="2" eb="3">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロト１_要件　の内容を更新。ゲームフローの記載を一通り行いました。</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒトトオ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■更新履歴（下手したらGit頼りであまり書かないかも）</t>
+    <rPh sb="1" eb="5">
+      <t>コウシンリレキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タヨ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,16 +605,54 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -459,14 +660,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,6 +751,3668 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 処理 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="1952625"/>
+          <a:ext cx="2447925" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>各種設定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　バック数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>？　出現タスクの種類</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 端子 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="3324225"/>
+          <a:ext cx="2219325" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スタートボタン押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 端子 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="23098125"/>
+          <a:ext cx="2219325" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>結果表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 処理 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="4657725"/>
+          <a:ext cx="2447925" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>出題準備</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（アセット読み込み等</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>状況に応じて、プレイしながらの読み込みでもよい）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="2847975"/>
+          <a:ext cx="9525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="4152900"/>
+          <a:ext cx="9525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート: カード 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="6400800"/>
+          <a:ext cx="2371725" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPunchedCard">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ゲームプレイループ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="5867400"/>
+          <a:ext cx="9525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="22545675"/>
+          <a:ext cx="9525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="グループ化 16"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="438150" y="21840825"/>
+          <a:ext cx="2371725" cy="514350"/>
+          <a:chOff x="352425" y="8658225"/>
+          <a:chExt cx="2371725" cy="514350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="フローチャート: カード 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="352425" y="8658225"/>
+            <a:ext cx="2371725" cy="514350"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartPunchedCard">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="590550" y="8686800"/>
+            <a:ext cx="1657350" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>全タスク出題済？</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="フローチャート: 処理 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="9448800"/>
+          <a:ext cx="2447925" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>提示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>済みのタスクを隠す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="6981825"/>
+          <a:ext cx="9525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="グループ化 35"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="257176" y="9277350"/>
+          <a:ext cx="3467099" cy="1514475"/>
+          <a:chOff x="276226" y="7458075"/>
+          <a:chExt cx="3467099" cy="1514475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="26" name="グループ化 25"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="276226" y="7458075"/>
+            <a:ext cx="3467099" cy="1514475"/>
+            <a:chOff x="257176" y="7496175"/>
+            <a:chExt cx="3467099" cy="1514475"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="フローチャート: 判断 18"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="257176" y="7496175"/>
+              <a:ext cx="2457450" cy="1123950"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDecision">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>１つ前に</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>タスクを提示した？</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1466850" y="8629650"/>
+              <a:ext cx="9525" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="19" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2714626" y="8058150"/>
+              <a:ext cx="1009649" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="590550" y="8553450"/>
+            <a:ext cx="523875" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>No</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2914650" y="7505700"/>
+            <a:ext cx="647700" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Yes</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="グループ化 36"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="266701" y="11087100"/>
+          <a:ext cx="3467099" cy="1514475"/>
+          <a:chOff x="276226" y="7458075"/>
+          <a:chExt cx="3467099" cy="1514475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="38" name="グループ化 37"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="276226" y="7458075"/>
+            <a:ext cx="3467099" cy="1514475"/>
+            <a:chOff x="257176" y="7496175"/>
+            <a:chExt cx="3467099" cy="1514475"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="フローチャート: 判断 40"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="257176" y="7496175"/>
+              <a:ext cx="2457450" cy="1123950"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDecision">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>全タスク</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>提示</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>済み？</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="42" name="直線矢印コネクタ 41"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1466850" y="8629650"/>
+              <a:ext cx="9525" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="41" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2714626" y="8058150"/>
+              <a:ext cx="1009649" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="テキスト ボックス 38"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="590550" y="8553450"/>
+            <a:ext cx="523875" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Yes</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2914650" y="7505700"/>
+            <a:ext cx="647700" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>No</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>195264</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="カギ線コネクタ 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3112295" y="8689181"/>
+          <a:ext cx="333375" cy="3433763"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="フローチャート: 処理 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="11258550"/>
+          <a:ext cx="2447925" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新たに１問</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>提示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="49" name="グループ化 48"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="266701" y="12763500"/>
+          <a:ext cx="3286124" cy="1514475"/>
+          <a:chOff x="276226" y="7458075"/>
+          <a:chExt cx="3286124" cy="1514475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="50" name="グループ化 49"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="276226" y="7458075"/>
+            <a:ext cx="2457450" cy="1514475"/>
+            <a:chOff x="257176" y="7496175"/>
+            <a:chExt cx="2457450" cy="1514475"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="フローチャート: 判断 52"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="257176" y="7496175"/>
+              <a:ext cx="2457450" cy="1123950"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDecision">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>開始前設定した</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>N</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" u="sng">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>バック</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>以上</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>提示</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>済？</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="54" name="直線矢印コネクタ 53"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1466850" y="8629650"/>
+              <a:ext cx="9525" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="590550" y="8553450"/>
+            <a:ext cx="523875" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Yes</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2914650" y="7505700"/>
+            <a:ext cx="647700" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>No</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223839</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="カギ線コネクタ 55"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3140870" y="10517981"/>
+          <a:ext cx="333375" cy="3433763"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="カギ線コネクタ 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2724151" y="6724650"/>
+          <a:ext cx="4219574" cy="6600825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2705101" y="6638926"/>
+          <a:ext cx="4219574" cy="19049"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="テキスト ボックス 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="12630150"/>
+          <a:ext cx="2285999" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>バック前の問題に答えないと</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>鬼トレではないので、再度提示から</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="フローチャート: 処理 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="14506575"/>
+          <a:ext cx="2447925" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>バック前のタスク出題</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線矢印コネクタ 72"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476376" y="15430500"/>
+          <a:ext cx="9525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="フローチャート: 処理 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="15954375"/>
+          <a:ext cx="2447925" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プレイヤー入力受付</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="77" name="グループ化 76"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="257176" y="17506950"/>
+          <a:ext cx="3467099" cy="1514475"/>
+          <a:chOff x="276226" y="7458075"/>
+          <a:chExt cx="3467099" cy="1514475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="78" name="グループ化 77"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="276226" y="7458075"/>
+            <a:ext cx="3467099" cy="1514475"/>
+            <a:chOff x="257176" y="7496175"/>
+            <a:chExt cx="3467099" cy="1514475"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="81" name="フローチャート: 判断 80"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="257176" y="7496175"/>
+              <a:ext cx="2457450" cy="1123950"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDecision">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>プレイヤーが、</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>時間内　かつ　正しい内容</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>を入力できていたか</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>※</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>制限時間の調整をできるように</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="82" name="直線矢印コネクタ 81"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1466850" y="8629650"/>
+              <a:ext cx="9525" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="83" name="直線矢印コネクタ 82"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="81" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2714626" y="8058150"/>
+              <a:ext cx="1009649" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="テキスト ボックス 78"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="590550" y="8553450"/>
+            <a:ext cx="523875" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Yes</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="テキスト ボックス 79"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2914650" y="7505700"/>
+            <a:ext cx="647700" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>No</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457326" y="16944975"/>
+          <a:ext cx="9525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="フローチャート: 処理 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838575" y="17678400"/>
+          <a:ext cx="2447925" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>++</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>不正解数　＆　不正解処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="フローチャート: 処理 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="19097625"/>
+          <a:ext cx="2447925" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>++</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>正解数　＆　正解処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線矢印コネクタ 86"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476376" y="19973925"/>
+          <a:ext cx="9525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="フローチャート: 処理 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="20459700"/>
+          <a:ext cx="2447925" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タスク出題まで完了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466851" y="21345525"/>
+          <a:ext cx="9525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="91" name="グループ化 90"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="238126" y="7505700"/>
+          <a:ext cx="3467099" cy="1514475"/>
+          <a:chOff x="276226" y="7458075"/>
+          <a:chExt cx="3467099" cy="1514475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="92" name="グループ化 91"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="276226" y="7458075"/>
+            <a:ext cx="3467099" cy="1514475"/>
+            <a:chOff x="257176" y="7496175"/>
+            <a:chExt cx="3467099" cy="1514475"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95" name="フローチャート: 判断 94"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="257176" y="7496175"/>
+              <a:ext cx="2457450" cy="1123950"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDecision">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>１つ前のタスクが</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t/>
+              </a:r>
+              <a:br>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>出題まで完了した？</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="96" name="直線矢印コネクタ 95"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1466850" y="8629650"/>
+              <a:ext cx="9525" cy="381000"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="97" name="直線矢印コネクタ 96"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="95" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2714626" y="8058150"/>
+              <a:ext cx="1009649" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="テキスト ボックス 92"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="590550" y="8553450"/>
+            <a:ext cx="523875" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>No</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="テキスト ボックス 93"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2914650" y="7505700"/>
+            <a:ext cx="647700" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Yes</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="フローチャート: 処理 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="7658100"/>
+          <a:ext cx="2447925" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>出題済みのタスクを隠す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>195264</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="カギ線コネクタ 98"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3112295" y="6927056"/>
+          <a:ext cx="333375" cy="3433763"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261939</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="カギ線コネクタ 100"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2440782" y="17533143"/>
+          <a:ext cx="1685925" cy="3557588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="円形吹き出し 102">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3286125" y="2600325"/>
+          <a:ext cx="2571750" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -68981"/>
+            <a:gd name="adj2" fmla="val -66213"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>画面構成＿タイトル画面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を参照の事</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="円形吹き出し 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="5219700"/>
+          <a:ext cx="2571750" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -72314"/>
+            <a:gd name="adj2" fmla="val 83292"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>画面構成＿ゲームプレイを参照の事（工事中）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="円形吹き出し 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="22517100"/>
+          <a:ext cx="2571750" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -47129"/>
+            <a:gd name="adj2" fmla="val 55569"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>画面構成＿結果表示を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>参照の事（工事中）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -771,7 +4704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -834,17 +4767,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -856,31 +4789,199 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A5"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>13</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A9" location="'プロト１_各問題（タスク）について'!A1" display="２．各問題（以降&quot;タスク&quot;と呼称）の実装（詳細は別シート参照の事）"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="82.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>241102</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProjectDocuments/企画概要&プロト要件.xlsx
+++ b/ProjectDocuments/企画概要&プロト要件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="企画概要" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>■どういうのを作りたい？</t>
     <rPh sb="7" eb="8">
@@ -556,12 +556,283 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>■共通項目</t>
+    <rPh sb="1" eb="3">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■タイトル画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・画面比率は16:9</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　①Nバック設定</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　●操作</t>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・左矢印</t>
+    <rPh sb="3" eb="6">
+      <t>ヒダリヤジルシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　→押下でー１</t>
+    <rPh sb="4" eb="6">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・右矢印</t>
+    <rPh sb="3" eb="6">
+      <t>ミギヤジルシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　→押下で＋１</t>
+    <rPh sb="4" eb="6">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　●内容</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　出題するバック数の設定に使用します。</t>
+    <rPh sb="2" eb="4">
+      <t>シュツダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　０～99の範囲で設定可能です。</t>
+    <rPh sb="7" eb="9">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　②１問あたりの出題時間設定</t>
+    <rPh sb="3" eb="4">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>シュツダイジカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・左右矢印</t>
+    <rPh sb="3" eb="5">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヤジルシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　→①と同様に増減　増減値は0.5刻み。</t>
+    <rPh sb="6" eb="8">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゾウゲン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ゾウゲンアタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　１問あたりの制限時間を設定します。</t>
+    <rPh sb="3" eb="4">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　0.5秒～60秒の範囲で設定可能です。</t>
+    <rPh sb="5" eb="6">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　③スタートボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　●操作＆内容</t>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　押下にて、上記設定値を用いたゲームを開始します。</t>
+    <rPh sb="2" eb="4">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　？　できれば準備中の間は　その旨を表示＆半透明黒板表示　で準備中であることをはっきりさせたい</t>
+    <rPh sb="8" eb="11">
+      <t>ジュンビチュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コクバン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ジュンビチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロト１_画面構成　の内容を更新。タイトル画面の記載を行いました。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +906,28 @@
       <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -723,7 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
@@ -735,6 +1028,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4415,6 +4711,698 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>367240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257174" y="828674"/>
+          <a:ext cx="3539066" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14815</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8820149" y="704849"/>
+          <a:ext cx="3539066" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="円/楕円 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="2390775"/>
+          <a:ext cx="1447800" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Start</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="933450" y="1057275"/>
+          <a:ext cx="2038350" cy="485775"/>
+          <a:chOff x="3933825" y="3248025"/>
+          <a:chExt cx="2038350" cy="485775"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="二等辺三角形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="3848100" y="3343275"/>
+            <a:ext cx="466725" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="二等辺三角形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5591175" y="3333750"/>
+            <a:ext cx="466725" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4248150" y="3267075"/>
+            <a:ext cx="1409700" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>XX </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>バック</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="933450" y="1676400"/>
+          <a:ext cx="2038350" cy="485775"/>
+          <a:chOff x="3933825" y="3248025"/>
+          <a:chExt cx="2038350" cy="485775"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="二等辺三角形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="3848100" y="3343275"/>
+            <a:ext cx="466725" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="二等辺三角形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5591175" y="3333750"/>
+            <a:ext cx="466725" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4248150" y="3267075"/>
+            <a:ext cx="1409700" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>X.X</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>秒</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="904875"/>
+          <a:ext cx="447675" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="1638300"/>
+          <a:ext cx="447675" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="2238375"/>
+          <a:ext cx="447675" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4791,8 +5779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4847,15 +5835,134 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4878,7 +5985,7 @@
   <dimension ref="A3:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4908,8 +6015,12 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3">
+        <v>241103</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>

--- a/ProjectDocuments/企画概要&プロト要件.xlsx
+++ b/ProjectDocuments/企画概要&プロト要件.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>■どういうのを作りたい？</t>
     <rPh sb="7" eb="8">
@@ -557,16 +557,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■共通項目</t>
-    <rPh sb="1" eb="3">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■タイトル画面</t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
@@ -827,12 +817,729 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>■ゲームプレイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■全画面共通項目</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　①ゲーム設定の表示</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　●内容</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　今やっているものが面白かったりそうでない時、</t>
+    <rPh sb="2" eb="3">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　設定値が原因かの切り分けに使えるよう表示します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　②提示タスクの表示</t>
+    <rPh sb="2" eb="4">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　これから出題を行うタスクの内容を表示します。</t>
+    <rPh sb="7" eb="9">
+      <t>シュツダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　●タスクについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　タスクの詳細や共通仕様については、別シート（プロト１＿各問題（タスク）について）を参照ください。</t>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>カクモンダイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　各項目は左上寄せで表示してください。</t>
+    <rPh sb="2" eb="5">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■各タスク共通</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　●表示内容</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　①何問目か</t>
+    <rPh sb="3" eb="6">
+      <t>ナンモンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">　　今何問目かを、 「Q.XX」の形で右中寄せにて表示します。 </t>
+    <rPh sb="2" eb="3">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ナンモンメ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　※XX部分は　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>２桁　ゼロ詰めアリ　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">で表示してください。　最大表示数はQ.99までとします。 </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　（例：５問目の場合、　Q.05 と表示します。）</t>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モンメ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　※</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最終問題の場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、同じく右中寄せにて</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「LAST」と表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>してください。</t>
+    </r>
+    <rPh sb="3" eb="7">
+      <t>サイシュウモンダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ミギナカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　これから解答を行うタスクの内容を表示します。</t>
+    <rPh sb="7" eb="9">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　（以降「■ゲームプレイ」項目に限り、上記シートを「各タスクシート」と呼称します。）</t>
+    <rPh sb="2" eb="4">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　　表示内容は、各タスクシートに記載された各タスクの「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提示時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を参照してください。</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　　表示内容は、各タスクシートに記載された各タスクの「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出題時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を参照してください。</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュツダイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　④スキップボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　●操作</t>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　・割り当てられたキーの押下（暫定で左Shift）</t>
+    <rPh sb="4" eb="5">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ザンテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　→タスクをスキップし、次のタスクに移ります。　</t>
+    <rPh sb="15" eb="16">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　●内容</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　ボタン押下にて、現在出題中のタスクを１問飛ばします。これをスキップと呼称します。</t>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>シュツダイチュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　スキップ時は、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>現在出題中のタスクを無条件で不正解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>として処理し、次の出題に進めます。</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ゲンザイシュツダイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ムジョウケン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>フセイカイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュツダイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　③出題タスクの表示</t>
+    <rPh sb="2" eb="4">
+      <t>シュツダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　●その他仕様等</t>
+    <rPh sb="4" eb="5">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　α.出題時、無回答の時間が「タイトルで設定した制限時間」を超えた場合、強制的に不正解にして処理を進めてください。</t>
+    <rPh sb="4" eb="7">
+      <t>シュツダイジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ムカイトウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>キョウセイテキ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>フセイカイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　　→※</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>時間切れでの不正解の場合、その旨を表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>してください。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（詳細は各タスクシートの共通仕様あたりを参照ください。）</t>
+    </r>
+    <rPh sb="5" eb="8">
+      <t>ジカンギ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>フセイカイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■結果表示</t>
+    <rPh sb="1" eb="5">
+      <t>ケッカヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロト１_画面構成　の内容を更新。ゲームプレイの記載を行いました。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,8 +1637,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,8 +1665,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1011,12 +1738,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
@@ -1031,6 +1767,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4500,6 +5239,12 @@
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4573,7 +5318,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="円形吹き出し 103"/>
+        <xdr:cNvPr id="104" name="円形吹き出し 103">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4590,6 +5337,12 @@
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4618,7 +5371,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>画面構成＿ゲームプレイを参照の事（工事中）</a:t>
+            <a:t>画面構成＿ゲームプレイを参照の事</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4657,6 +5410,12 @@
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5400,6 +6159,1484 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205315</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="781049" y="8334374"/>
+          <a:ext cx="3539066" cy="1990725"/>
+          <a:chOff x="4295774" y="8220074"/>
+          <a:chExt cx="3539066" cy="1990725"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4295774" y="8220074"/>
+            <a:ext cx="3539066" cy="1990725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4371975" y="8286750"/>
+            <a:ext cx="638175" cy="352426"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>バック</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+              <a:t>XX</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+              <a:t>秒</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5076825" y="8391525"/>
+            <a:ext cx="2676525" cy="762000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>何らかの提示タスク</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5076825" y="9277350"/>
+            <a:ext cx="2676525" cy="762000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>何らかの出題タスク</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4381500" y="8886825"/>
+            <a:ext cx="638175" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Q.XX</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4371975" y="9782175"/>
+            <a:ext cx="638175" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Q.XX</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5200649" y="9467850"/>
+          <a:ext cx="3419476" cy="762000"/>
+          <a:chOff x="10715624" y="8439150"/>
+          <a:chExt cx="3419476" cy="762000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11458575" y="8439150"/>
+            <a:ext cx="2676525" cy="762000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>何らかのタスク</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10715624" y="8943974"/>
+            <a:ext cx="638175" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Q.XX</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="9401175"/>
+          <a:ext cx="619125" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Skip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> [L-Shift]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="7991475"/>
+          <a:ext cx="447675" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="8953500"/>
+          <a:ext cx="447675" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="9896475"/>
+          <a:ext cx="447675" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="L 字 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="828675" y="8458200"/>
+          <a:ext cx="3448049" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="corner">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41111"/>
+            <a:gd name="adj2" fmla="val 318889"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="L 字 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="819150" y="9363075"/>
+          <a:ext cx="3448049" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="corner">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41111"/>
+            <a:gd name="adj2" fmla="val 318889"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="9382125"/>
+          <a:ext cx="647700" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="12639675"/>
+          <a:ext cx="447675" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="none">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="9458325"/>
+          <a:ext cx="447675" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1" u="none">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11811000" y="533400"/>
+          <a:ext cx="3419476" cy="762000"/>
+          <a:chOff x="10715624" y="8439150"/>
+          <a:chExt cx="3419476" cy="762000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11458575" y="8439150"/>
+            <a:ext cx="2676525" cy="762000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>何らかのタスク</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10715624" y="8943974"/>
+            <a:ext cx="638175" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Q.XX</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="257174" y="933450"/>
+          <a:ext cx="3419476" cy="762000"/>
+          <a:chOff x="10715624" y="8439150"/>
+          <a:chExt cx="3419476" cy="762000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11458575" y="8439150"/>
+            <a:ext cx="2676525" cy="762000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>何らかのタスク</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10715624" y="8943974"/>
+            <a:ext cx="638175" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Q.XX</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="1057275"/>
+          <a:ext cx="447675" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="533400"/>
+          <a:ext cx="447675" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5696,74 +7933,74 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5779,43 +8016,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5835,127 +8072,328 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="I37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+    <row r="40" spans="1:9">
+      <c r="A40" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9" t="s">
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+    <row r="43" spans="1:9">
+      <c r="A43" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
-        <v>46</v>
+    <row r="45" spans="1:9" s="10" customFormat="1"/>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" s="10" customFormat="1"/>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A64" location="'プロト１_各問題（タスク）について'!A1" display="　　タスクの詳細や共通仕様については、別シート（プロト１＿各問題（タスク）について）を参照ください。"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5966,39 +8404,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="82.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="14.25" thickBot="1">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="14.25" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -6006,7 +8430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="4">
         <v>241102</v>
       </c>
@@ -6014,79 +8438,83 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>241103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3">
+        <v>241114</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>

--- a/ProjectDocuments/企画概要&プロト要件.xlsx
+++ b/ProjectDocuments/企画概要&プロト要件.xlsx
@@ -11,14 +11,15 @@
     <sheet name="プロト１_要件" sheetId="2" r:id="rId2"/>
     <sheet name="プロト１_画面構成" sheetId="4" r:id="rId3"/>
     <sheet name="プロト１_各問題（タスク）について" sheetId="3" r:id="rId4"/>
-    <sheet name="更新履歴　等" sheetId="5" r:id="rId5"/>
+    <sheet name="Q＆A" sheetId="6" r:id="rId5"/>
+    <sheet name="更新履歴　等" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>■どういうのを作りたい？</t>
     <rPh sb="7" eb="8">
@@ -921,22 +922,6 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　各項目は左上寄せで表示してください。</t>
-    <rPh sb="2" eb="5">
-      <t>カクコウモク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒダリウエ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1530,6 +1515,291 @@
       <t>キサイ</t>
     </rPh>
     <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解答</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　①正解数の表示</t>
+    <rPh sb="2" eb="4">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　正解率に応じた原因切り分けも行いたいため、正解数の表示を行います。</t>
+    <rPh sb="2" eb="5">
+      <t>セイカイリツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>セイカイスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　XX には出題したすべての問題数を　YYには正解数を表示します。</t>
+    <rPh sb="7" eb="9">
+      <t>シュツダイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>モンダイスウ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>セイカイスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　※いずれも　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>２桁　右寄せ　ゼロ詰めナシ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　で表示。</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミギヨ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　②ゲーム設定の表示</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　ゲームプレイ-①と同様、設定値によるものかの原因切り分けの為に表示します。</t>
+    <rPh sb="11" eb="13">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>セッテイチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　各項目は左上寄せで表示してください。また、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>秒数は小数点第１まで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示とします。</t>
+    </r>
+    <rPh sb="2" eb="5">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ビョウスウ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　③タイトルに戻るボタン</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　押下にてタイトル画面に戻ります。（設定値のリセット有無はどちらでも構いません。）</t>
+    <rPh sb="2" eb="4">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>セッテイチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　※再起動を挟むのが手間を省き、確認のイテレーションを早めるため、できれば実装をお願いしたいです。</t>
+    <rPh sb="3" eb="6">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テマ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハブ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロト１_画面構成　の内容を更新。結果画面の記載を行いました。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ケッカガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1652,7 +1922,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1671,8 +1941,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1747,12 +2035,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
@@ -1770,6 +2073,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -5393,7 +5705,9 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="円形吹き出し 104"/>
+        <xdr:cNvPr id="105" name="円形吹き出し 104">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5460,7 +5774,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>参照の事（工事中）</a:t>
+            <a:t>参照の事</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6273,7 +6587,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>2</a:t>
+              <a:t>X</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -7228,6 +7542,465 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233890</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809624" y="17392649"/>
+          <a:ext cx="3539066" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="17573625"/>
+          <a:ext cx="3095625" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>XX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>門中　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>YY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>門正解</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="17983200"/>
+          <a:ext cx="3095625" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>バック　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>秒</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>71150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943101" y="18759200"/>
+          <a:ext cx="1219200" cy="328900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タイトルへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="17668875"/>
+          <a:ext cx="447675" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="18107025"/>
+          <a:ext cx="447675" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="18745200"/>
+          <a:ext cx="447675" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8016,8 +8789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="J138" sqref="J138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8072,10 +8845,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8216,7 +8989,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -8241,7 +9014,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="11" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:1">
@@ -8261,12 +9034,12 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -8276,68 +9049,128 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:1" s="10" customFormat="1"/>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -8363,37 +9196,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -8406,10 +9239,203 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="3" width="48.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="14.25" thickBot="1"/>
+    <row r="3" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8451,12 +9477,16 @@
         <v>241114</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3">
+        <v>241114</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3"/>

--- a/ProjectDocuments/企画概要&プロト要件.xlsx
+++ b/ProjectDocuments/企画概要&プロト要件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="企画概要" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
   <si>
     <t>■どういうのを作りたい？</t>
     <rPh sb="7" eb="8">
@@ -636,19 +636,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　０～99の範囲で設定可能です。</t>
-    <rPh sb="7" eb="9">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1527,13 +1514,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>解答</t>
-    <rPh sb="0" eb="2">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　①正解数の表示</t>
     <rPh sb="2" eb="4">
       <t>セイカイ</t>
@@ -1804,12 +1784,159 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答(末尾に回答日)</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カイトウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１バック以上は現時点のフローでよいが、
+０バックは提示の部分をどうするのか</t>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ゲンジテン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そもそもまだプロト段階にて、面白さの検証を行いたいため、
+一旦０バックはなしていいかもしれない。(241114)</t>
+    <rPh sb="9" eb="11">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イッタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　1～99の範囲で設定可能です。</t>
+    <rPh sb="7" eb="9">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロト１＿画面構成＿タイトル画面　シートにて、
+バック数の下限を１に修正(241114)</t>
+    <rPh sb="5" eb="9">
+      <t>ガメンコウセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>０バックは一旦考えないものとして、タイトル画面でのバック数の下限値を修正しました。</t>
+    <rPh sb="5" eb="7">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問開始日</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日</t>
+    <rPh sb="0" eb="3">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解決済み
+（241114）</t>
+    <rPh sb="0" eb="2">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1921,8 +2048,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1959,8 +2093,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2036,10 +2176,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -2050,12 +2190,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
@@ -2073,14 +2239,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8789,8 +8976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J138" sqref="J138"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8847,15 +9034,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -8910,12 +9097,12 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -8925,12 +9112,12 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -8940,106 +9127,106 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="10" customFormat="1"/>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -9049,73 +9236,73 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:1" s="10" customFormat="1"/>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:1">
@@ -9125,22 +9312,22 @@
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:1">
@@ -9150,27 +9337,27 @@
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -9196,37 +9383,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -9239,192 +9426,376 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C35"/>
+  <dimension ref="A2:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="3" width="48.625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="4" width="48.625" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="14.25" thickBot="1"/>
-    <row r="3" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
+    <row r="2" spans="1:6" ht="14.25" thickBot="1"/>
+    <row r="3" spans="1:6" ht="14.25" thickBot="1">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>241114</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>4</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>5</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>6</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>7</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>8</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>9</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>10</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>11</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>12</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>13</v>
+      </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>14</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>15</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>16</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>17</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>18</v>
+      </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>19</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>20</v>
+      </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>21</v>
+      </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>22</v>
+      </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>23</v>
+      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>24</v>
+      </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>25</v>
+      </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>26</v>
+      </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>27</v>
+      </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>28</v>
+      </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>29</v>
+      </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>30</v>
+      </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>31</v>
+      </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>32</v>
+      </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E4" location="プロト１_画面構成!A29" display="プロト１_画面構成!A29"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -9434,8 +9805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9469,7 +9840,7 @@
         <v>241103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9477,7 +9848,7 @@
         <v>241114</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9485,12 +9856,16 @@
         <v>241114</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="3">
+        <v>241114</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3"/>

--- a/ProjectDocuments/企画概要&プロト要件.xlsx
+++ b/ProjectDocuments/企画概要&プロト要件.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
     <t>■どういうのを作りたい？</t>
     <rPh sb="7" eb="8">
@@ -1928,6 +1928,102 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　②タスク内容</t>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　●タスクについての制限</t>
+    <rPh sb="10" eb="12">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・操作は　上下左右　＋ ２キー（AB）のみとすること</t>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ジョウゲサユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→（いずれも）複雑にすると理解の時間が必要となり、プレイヤーに取ってテンポが悪くなるため</t>
+    <rPh sb="9" eb="11">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・複雑な物、難しいものは出さない（２つ以上同時に考える必要がある　等…）</t>
+    <rPh sb="2" eb="4">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロト１_各問題（タスク）について　を更新。テンポを保つため、複雑にしない旨を追加</t>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タモ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8976,7 +9072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -9034,7 +9130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -9373,10 +9469,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9414,6 +9510,31 @@
     <row r="18" spans="1:1">
       <c r="A18" s="12" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -9806,7 +9927,7 @@
   <dimension ref="A3:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9868,8 +9989,12 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="3">
+        <v>240223</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3"/>

--- a/ProjectDocuments/企画概要&プロト要件.xlsx
+++ b/ProjectDocuments/企画概要&プロト要件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="企画概要" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
   <si>
     <t>■どういうのを作りたい？</t>
     <rPh sb="7" eb="8">
@@ -1409,75 +1409,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>　　　→※</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>時間切れでの不正解の場合、その旨を表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>してください。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（詳細は各タスクシートの共通仕様あたりを参照ください。）</t>
-    </r>
-    <rPh sb="5" eb="8">
-      <t>ジカンギ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>フセイカイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ムネ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■結果表示</t>
     <rPh sb="1" eb="5">
       <t>ケッカヒョウジ</t>
@@ -1569,47 +1500,6 @@
       <t>セイカイスウ</t>
     </rPh>
     <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>　　※いずれも　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>２桁　右寄せ　ゼロ詰めナシ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　で表示。</t>
-    </r>
-    <rPh sb="9" eb="10">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ミギヨ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヅ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2027,12 +1917,315 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>　計算などの問題を表示。具体的な表示内容は下記を参照。</t>
+    <rPh sb="1" eb="3">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ヒョウジナイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　・また、提示と出題で　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跨って出題するのはNG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（提示時に答えまで算出できるようなタスクにする）</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マタガ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュツダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■各タスクについて</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　●正誤表示について</t>
+    <rPh sb="2" eb="4">
+      <t>セイゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　　→※</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>時間切れでの不正解の場合、その旨を表示</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>してください。</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（詳細は各タスクシートの共通仕様あたりを参照ください。）</t>
+    </r>
+    <rPh sb="5" eb="8">
+      <t>ジカンギ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>フセイカイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　→モック段階でそこまでやっても工数かかるだけな気がするので一旦パス(250321)</t>
+    <rPh sb="7" eb="9">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イッタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロト１＿画面構成＆タスクについて　を更新。フローの修正と正誤表示について追加</t>
+    <rPh sb="5" eb="9">
+      <t>ガメンコウセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>セイゴヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　※いずれも　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>２桁　右寄せ　ゼロ詰めナシ</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　で表示。</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミギヨ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　正誤判明後、判定に合わせ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>タスク内中央にＯＸマークを表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>してください。（正解でＯ　不正解でＸ）</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>セイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハンメイゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>フセイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2132,13 +2325,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -2149,6 +2335,42 @@
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2317,7 +2539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
@@ -2334,7 +2556,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2362,9 +2584,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2556,14 +2779,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2572,7 +2795,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="438150" y="23098125"/>
+          <a:off x="438150" y="25260300"/>
           <a:ext cx="2219325" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -2942,14 +3165,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2958,7 +3181,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1466850" y="22545675"/>
+          <a:off x="1466850" y="24707850"/>
           <a:ext cx="9525" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2992,14 +3215,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3008,7 +3231,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="438150" y="21840825"/>
+          <a:off x="438150" y="24003000"/>
           <a:ext cx="2371725" cy="514350"/>
           <a:chOff x="352425" y="8658225"/>
           <a:chExt cx="2371725" cy="514350"/>
@@ -4654,14 +4877,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4670,7 +4893,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="257176" y="17506950"/>
+          <a:off x="257176" y="19669125"/>
           <a:ext cx="3467099" cy="1514475"/>
           <a:chOff x="276226" y="7458075"/>
           <a:chExt cx="3467099" cy="1514475"/>
@@ -4974,15 +5197,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>18575</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4991,8 +5214,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1457326" y="16944975"/>
-          <a:ext cx="9525" cy="381000"/>
+          <a:off x="1371601" y="16830675"/>
+          <a:ext cx="18574" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5025,14 +5248,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5041,7 +5264,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3838575" y="17678400"/>
+          <a:off x="3838575" y="19840575"/>
           <a:ext cx="2447925" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -5097,14 +5320,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5113,7 +5336,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="314325" y="19097625"/>
+          <a:off x="314325" y="21259800"/>
           <a:ext cx="2447925" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -5169,14 +5392,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5185,7 +5408,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476376" y="19973925"/>
+          <a:off x="1476376" y="22136100"/>
           <a:ext cx="9525" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5219,14 +5442,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5235,7 +5458,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="314325" y="20459700"/>
+          <a:off x="314325" y="22621875"/>
           <a:ext cx="2447925" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -5291,14 +5514,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5307,7 +5530,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1466851" y="21345525"/>
+          <a:off x="1466851" y="23507700"/>
           <a:ext cx="9525" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5752,14 +5975,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261939</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5770,7 +5993,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2440782" y="17533143"/>
+          <a:off x="2440782" y="19695318"/>
           <a:ext cx="1685925" cy="3557588"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -5977,14 +6200,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5995,7 +6218,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2695575" y="22517100"/>
+          <a:off x="2695575" y="24679275"/>
           <a:ext cx="2571750" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -6062,6 +6285,333 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="75" name="グループ化 74"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="180976" y="17678400"/>
+          <a:ext cx="3286124" cy="1828800"/>
+          <a:chOff x="276226" y="7458075"/>
+          <a:chExt cx="3286124" cy="1828800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="76" name="グループ化 75"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="276226" y="7458075"/>
+            <a:ext cx="2457450" cy="1828800"/>
+            <a:chOff x="257176" y="7496175"/>
+            <a:chExt cx="2457450" cy="1828800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="102" name="フローチャート: 判断 101"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="257176" y="7496175"/>
+              <a:ext cx="2457450" cy="1123950"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDecision">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>スキップボタンが押下された？</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t/>
+              </a:r>
+              <a:br>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>？　できればスキップ回数も</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t/>
+              </a:r>
+              <a:br>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                </a:rPr>
+              </a:br>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>結果画面で表示したい</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="106" name="直線矢印コネクタ 105"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1476375" y="8639175"/>
+              <a:ext cx="17145" cy="685800"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="テキスト ボックス 89"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="590550" y="8553450"/>
+            <a:ext cx="523875" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>No</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="テキスト ボックス 99"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2914650" y="7505700"/>
+            <a:ext cx="647700" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Yes</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="カギ線コネクタ 107"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="3"/>
+          <a:endCxn id="85" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638426" y="18240375"/>
+          <a:ext cx="2424112" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8693,6 +9243,254 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>56370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="4257675"/>
+          <a:ext cx="2105025" cy="599295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>何らかのタスク</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="ドーナツ 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="4333875"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="donut">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>56370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="4257675"/>
+          <a:ext cx="2105025" cy="599295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>何らかのタスク</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="十字形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2700000">
+          <a:off x="3248025" y="4257675"/>
+          <a:ext cx="647700" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 41176"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8989,74 +9787,74 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -9072,43 +9870,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -9128,100 +9926,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -9229,231 +10027,241 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="10" customFormat="1"/>
-    <row r="46" spans="1:9">
+    <row r="45" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="12" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:1" s="10" customFormat="1"/>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="12" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="8" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="12" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="12" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -9469,78 +10277,106 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="12"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>107</v>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -9553,7 +10389,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="4" width="48.625" customWidth="1"/>
@@ -9561,28 +10397,28 @@
     <col min="6" max="6" width="13.875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="14.25" thickBot="1"/>
-    <row r="3" spans="1:6" ht="14.25" thickBot="1">
+    <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27">
+    </row>
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9590,19 +10426,19 @@
         <v>241114</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>98</v>
-      </c>
       <c r="F4" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9612,7 +10448,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9622,7 +10458,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9632,7 +10468,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="21"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9642,7 +10478,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9652,7 +10488,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -9662,7 +10498,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -9672,7 +10508,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="21"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -9682,7 +10518,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -9692,7 +10528,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -9702,7 +10538,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -9712,7 +10548,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -9722,7 +10558,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -9732,7 +10568,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -9742,7 +10578,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="21"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -9752,7 +10588,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -9762,7 +10598,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -9772,7 +10608,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -9782,7 +10618,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="21"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -9792,7 +10628,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -9802,7 +10638,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -9812,7 +10648,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -9822,7 +10658,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -9832,7 +10668,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -9842,7 +10678,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="21"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -9852,7 +10688,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -9862,7 +10698,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -9872,7 +10708,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -9882,7 +10718,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="21"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -9892,7 +10728,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -9902,7 +10738,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="21"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -9926,21 +10762,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="82.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="14.25" thickBot="1">
+    <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" thickBot="1">
+    <row r="4" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -9948,7 +10784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>241102</v>
       </c>
@@ -9956,7 +10792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>241103</v>
       </c>
@@ -9964,87 +10800,91 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>241114</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>241114</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>241114</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>240223</v>
+        <v>250223</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>250321</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>

--- a/ProjectDocuments/企画概要&プロト要件.xlsx
+++ b/ProjectDocuments/企画概要&プロト要件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="企画概要" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="163">
   <si>
     <t>■どういうのを作りたい？</t>
     <rPh sb="7" eb="8">
@@ -1943,59 +1943,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>　・また、提示と出題で　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>跨って出題するのはNG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（提示時に答えまで算出できるようなタスクにする）</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>テイジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュツダイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>マタガ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュツダイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テイジ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>コタ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>サンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■各タスクについて</t>
     <rPh sb="1" eb="2">
       <t>カク</t>
@@ -2220,12 +2167,912 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>　・また、提示と出題で　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跨って出題するのはNG</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（提示時に答えまで算出できるようなタスクにする）</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マタガ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュツダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　→モック段階では色々試してみたいので、跨りも一旦アリにしてみる(250328)</t>
+    <rPh sb="5" eb="7">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>マタガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イッタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・もう図を作るのめんどくせえ！！！！！　いい加減制作進めたいので、自分がわかる範囲での記述とします（250328）</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・鬼トレ計算まんま。</t>
+    <rPh sb="2" eb="3">
+      <t>オニ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　＊提示時</t>
+    <rPh sb="2" eb="4">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→鬼トレと同様、 ？ ? ？　の形にする</t>
+    <rPh sb="3" eb="4">
+      <t>オニ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　＊出題時</t>
+    <rPh sb="2" eb="5">
+      <t>シュツダイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→特に理由はないが、３択から選んでもらう形にする</t>
+    <rPh sb="3" eb="4">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・鬼記号まんま。</t>
+    <rPh sb="2" eb="3">
+      <t>オニ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→鬼トレと同様、 覚える記号を表示。</t>
+    <rPh sb="3" eb="4">
+      <t>オニ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→３択から選んでもらう</t>
+    <rPh sb="4" eb="5">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　２．記号</t>
+    <rPh sb="3" eb="5">
+      <t>キゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　１．計算</t>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　３．指示</t>
+    <rPh sb="3" eb="5">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・メイドインワリオの「～～～しろ！」とインゲームを分けたようなイメージ</t>
+    <rPh sb="26" eb="27">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→出題時に行うべき指示のみを出す。（多いのは？や　仲間外れは？　等）</t>
+    <rPh sb="3" eb="6">
+      <t>シュツダイジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ナカマハズ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→３択の中から選んでもらう。　内容は一旦すべて図形（四角、三角、丸といった単純なもの）とし、指示内容に合わせて選択肢を変えるイメージ</t>
+    <rPh sb="4" eb="5">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ズケイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　４．コマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・メイドインワリオの「コマンド」を参考に、指定キーを押してもらう</t>
+    <rPh sb="18" eb="20">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→出題時に押すキーを表示（　「X」　をおして！　とか？　たまに２つになる…？）</t>
+    <rPh sb="3" eb="6">
+      <t>シュツダイジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→「？」　を押して！　と表示し、提示時のキーを押してもらう。</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　５．大小</t>
+    <rPh sb="3" eb="5">
+      <t>ダイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・数字を２つ出し、大きい方を指してもらう（不等号を表示）</t>
+    <rPh sb="2" eb="4">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>フトウゴウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→　X　？　X　と表示し、Xにはランダムで０～９の数値が入る（同じ数字は入れない！　必ず大小が決まる）</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ダイショウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→？　「＞」「＜」　？　と表示し、←→キーの押下で選ばせ、提示時の数値に合う不等号を入れさせる。</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>フトウゴウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　６．箱はどこ？</t>
+    <rPh sb="3" eb="4">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・５つの箱のうち、唯一リンゴが入っている箱を当ててもらう</t>
+    <rPh sb="5" eb="6">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ユイイツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→箱を５つ　横並びに表示。　その内ランダムに１つだけ、リンゴが入っている。</t>
+    <rPh sb="3" eb="4">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨコナラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→箱を横並び５つに表示するが、リンゴは表示されない。　真ん中にカーソルがあっている状態から、←→でカーソルを動かし、Zで選択してもらう。</t>
+    <rPh sb="3" eb="4">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨコナラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　７．ピッキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・５枚の板（？）を上げ下げして鍵開けを行う（実際には開かずにピッキングの様子のみ移すイメージ）</t>
+    <rPh sb="3" eb="4">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カギア</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヨウス</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→提示時と同じ形になるよう、５枚の板を上げ下げする。</t>
+    <rPh sb="3" eb="5">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→５枚の板が上げ下げ済みの状態で表示される。（上下混ぜると難しくなる…？　いずれか１、２枚が動いてるぐらいが限界か？）</t>
+    <rPh sb="4" eb="5">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ゲンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　８．箱数え</t>
+    <rPh sb="3" eb="4">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・箱の数を数える。（元ネタ中の元ネタ。鬼トレの集中時間測定に該当）</t>
+    <rPh sb="2" eb="3">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カゾ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オニ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>シュウチュウジカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→箱が１～９個の内、ランダムに出現する（出現位置は固定）</t>
+    <rPh sb="3" eb="4">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→３択の中から選択</t>
+    <rPh sb="4" eb="5">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　９．視力検査</t>
+    <rPh sb="3" eb="7">
+      <t>シリョクケンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・そのまま視力検査のアレ（さすがに小さくなったりはしない）</t>
+    <rPh sb="6" eb="10">
+      <t>シリョクケンサ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→ランドルト環を上下左右のいずれかに向けて表示</t>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ジョウゲサユウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→「方向は？」と出し、上下左右の入力を待つ。（プレイヤーの操作が何らかの形で見えるように。　不正解時のみ、正解と入力を並べるとか？）</t>
+    <rPh sb="4" eb="6">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ジョウゲサユウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>フセイカイジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　１０．マジカルチェンジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・「たらこ」　→　「たいこ」の要領で変わった１文字を当てる</t>
+    <rPh sb="16" eb="18">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→ランダムで３文字の言葉を表示</t>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→提示時から一文字変えた言葉を表示　（例　みかん　→　みかい　等）</t>
+    <rPh sb="3" eb="5">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヒトモジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　下部に「変わった場所は？」と表示し、３択の要領で変わった１文字を選ばせる。</t>
+    <rPh sb="3" eb="5">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロト１_各問題（タスク）について　を更新。 いい加減プロト制作の為のタスク案を記載。</t>
+    <rPh sb="25" eb="27">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2368,6 +3215,34 @@
     <font>
       <strike/>
       <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2539,7 +3414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
@@ -2588,6 +3463,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -10185,12 +11061,12 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -10221,12 +11097,12 @@
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
@@ -10277,10 +11153,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10332,12 +11208,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
@@ -10354,23 +11230,338 @@
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>109</v>
+      <c r="A34" s="24" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>110</v>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -10762,8 +11953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10837,12 +12028,16 @@
         <v>250321</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="3">
+        <v>250403</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
